--- a/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_no_assign_results_Date_threshold_33_30_replicas.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_no_assign_results_Date_threshold_33_30_replicas.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kisshin\Desktop\Mestrado Ricardo\Thesis\Msc_thesis\Data\Modeling Stage\Results\IMS\Non temporal models\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CBD039-BAC5-4209-908F-106D7AFCF1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="14715" yWindow="570" windowWidth="13995" windowHeight="14265" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="exam_fail" sheetId="1" r:id="rId1"/>
     <sheet name="exam_gifted" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -995,8 +1001,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1059,6 +1065,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1105,7 +1119,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1137,9 +1151,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1171,6 +1203,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1346,14 +1396,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1394,7 +1446,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1438,7 +1490,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,7 +1534,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1526,7 +1578,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1570,7 +1622,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1614,7 +1666,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1658,7 +1710,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1702,7 +1754,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1746,7 +1798,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -1790,7 +1842,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1834,7 +1886,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,7 +1930,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1922,7 +1974,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -1972,14 +2024,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2020,7 +2074,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -2064,7 +2118,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -2108,7 +2162,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -2152,7 +2206,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -2196,7 +2250,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -2240,7 +2294,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -2284,7 +2338,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -2328,7 +2382,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -2372,7 +2426,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -2416,7 +2470,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -2460,7 +2514,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -2504,7 +2558,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -2548,7 +2602,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
